--- a/data/TopOnePercent/Liaoning Normal University.xlsx
+++ b/data/TopOnePercent/Liaoning Normal University.xlsx
@@ -184,13 +184,13 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1089.0</v>
+        <v>984.0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>10629.0</v>
+        <v>9466.0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>9.76</v>
+        <v>9.62</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>3.0</v>
@@ -206,22 +206,22 @@
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>3066.0</v>
+        <v>2914.0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>25068.0</v>
+        <v>23311.0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>8.18</v>
+        <v>8.0</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Copyright © 2019 Clarivate Analytics</t>
+          <t>Copyright © 2020 Clarivate Analytics</t>
         </is>
       </c>
     </row>
